--- a/coordinates.xlsx
+++ b/coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www.gugugu.xyz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E489F049-7976-4CA6-9D51-023E461D4EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8727DFCB-0B3A-4A46-A3D3-82CD28797ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3150" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,14 @@
   </si>
   <si>
     <t>下界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotten flesh: 54 stacks/40min, 1.35 stack per min, 1.44 per second (measured on 20220626)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold nuglet: 36 stacks/40min, 0.9 stack per min, 0.96 per second (measured on 20220626)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +127,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,8 +156,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -423,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -435,7 +451,7 @@
     <col min="3" max="6" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -469,7 +485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -492,7 +508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9" ht="18.75">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -514,8 +530,14 @@
       <c r="G4" t="s">
         <v>18</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -538,7 +560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -561,7 +583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>16</v>
       </c>

--- a/coordinates.xlsx
+++ b/coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www.gugugu.xyz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8727DFCB-0B3A-4A46-A3D3-82CD28797ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D020F394-E535-4A36-AFA2-1339E352D3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3150" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>gold nuglet: 36 stacks/40min, 0.9 stack per min, 0.96 per second (measured on 20220626)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fireman Farm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -606,6 +610,11 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="1:9" ht="18.75">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
